--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1323748.231845387</v>
+        <v>1321449.578931138</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23486610.55974439</v>
+        <v>23486610.55974441</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3401279.638466295</v>
+        <v>3401279.638466298</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>21.71717045362102</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.76484596498756</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>28.11631013281968</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>28.11631013281968</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="Y7" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="X7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="C9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>24.76484596498758</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="U10" t="n">
         <v>28.11631013281968</v>
@@ -1353,7 +1353,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="W10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>405.0368582050642</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>56.75443002191469</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H12" t="n">
-        <v>45.25453770826733</v>
+        <v>45.25453770826732</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>184.5091845545366</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1542,10 +1542,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9357313989399</v>
+        <v>40.63055517795524</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I13" t="n">
         <v>78.96292111239987</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.9548995066969</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>96.74487268406787</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>393.4867156293593</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.8272831086575</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.2884438087945</v>
@@ -1669,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H15" t="n">
-        <v>45.25453770826733</v>
+        <v>45.25453770826732</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>29.99556994304018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1782,10 +1782,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H16" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783964</v>
       </c>
       <c r="I16" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>156.9548995066969</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486149</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G17" t="n">
-        <v>398.8272831086575</v>
+        <v>398.8272831086576</v>
       </c>
       <c r="H17" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>31.59969880223017</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>299.8360096303411</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H18" t="n">
-        <v>45.25453770826733</v>
+        <v>45.25453770826732</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249452</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>38.37842892350911</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831854</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9357313989399</v>
+        <v>163.9357313989401</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.5021430764246</v>
       </c>
       <c r="I19" t="n">
-        <v>75.20779664199139</v>
+        <v>78.96292111240004</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.9548995066969</v>
+        <v>156.9548995066971</v>
       </c>
       <c r="T19" t="n">
-        <v>238.0916429637043</v>
+        <v>238.0916429637045</v>
       </c>
       <c r="U19" t="n">
-        <v>277.346676635984</v>
+        <v>277.3466766359842</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180516</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892123</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>142.9224487839271</v>
+        <v>415.6498806486149</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8272831086575</v>
+        <v>310.6495365429033</v>
       </c>
       <c r="H20" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439304</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H21" t="n">
-        <v>45.25453770826733</v>
+        <v>45.25453770826732</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249452</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>38.37842892350911</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831854</v>
       </c>
       <c r="G22" t="n">
-        <v>160.1806069285315</v>
+        <v>163.9357313989401</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.5021430764246</v>
       </c>
       <c r="I22" t="n">
-        <v>78.96292111239987</v>
+        <v>78.96292111240004</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.9548995066969</v>
+        <v>156.9548995066971</v>
       </c>
       <c r="T22" t="n">
-        <v>238.0916429637043</v>
+        <v>238.0916429637045</v>
       </c>
       <c r="U22" t="n">
-        <v>277.346676635984</v>
+        <v>277.3466766359842</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180516</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892123</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486149</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G23" t="n">
-        <v>398.8272831086575</v>
+        <v>398.8272831086576</v>
       </c>
       <c r="H23" t="n">
-        <v>279.8515591943052</v>
+        <v>279.8515591943054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.86271419048811</v>
+        <v>69.86271419048828</v>
       </c>
       <c r="T23" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087947</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6538892153287</v>
+        <v>255.653889215329</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250132</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439304</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.32757685833836</v>
       </c>
       <c r="H24" t="n">
-        <v>45.25453770826733</v>
+        <v>45.25453770826732</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249452</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444972</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831854</v>
       </c>
       <c r="G25" t="n">
-        <v>23.67846385210665</v>
+        <v>163.9357313989401</v>
       </c>
       <c r="H25" t="n">
-        <v>136.5021430764245</v>
+        <v>136.5021430764246</v>
       </c>
       <c r="I25" t="n">
-        <v>78.96292111239987</v>
+        <v>78.96292111240004</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>156.9548995066969</v>
+        <v>156.9548995066971</v>
       </c>
       <c r="T25" t="n">
-        <v>238.0916429637043</v>
+        <v>238.0916429637045</v>
       </c>
       <c r="U25" t="n">
-        <v>277.346676635984</v>
+        <v>277.3466766359842</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>155.5891764970621</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892123</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486149</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G26" t="n">
-        <v>398.8272831086575</v>
+        <v>398.8272831086576</v>
       </c>
       <c r="H26" t="n">
-        <v>279.8515591943052</v>
+        <v>279.8515591943054</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.86271419048742</v>
+        <v>69.86271419048828</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087948</v>
       </c>
       <c r="U26" t="n">
-        <v>255.653889215329</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250132</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439304</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249452</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3892587100636</v>
+        <v>161.6836051444972</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831854</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9357313989399</v>
+        <v>163.9357313989401</v>
       </c>
       <c r="H28" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796782619</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.9548995066969</v>
+        <v>156.9548995066971</v>
       </c>
       <c r="T28" t="n">
-        <v>238.0916429637043</v>
+        <v>238.0916429637045</v>
       </c>
       <c r="U28" t="n">
-        <v>277.346676635984</v>
+        <v>277.3466766359842</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180516</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892123</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486149</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E29" t="n">
-        <v>421.7171704536222</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G29" t="n">
-        <v>398.8272831086575</v>
+        <v>398.8272831086576</v>
       </c>
       <c r="H29" t="n">
-        <v>279.8515591943052</v>
+        <v>279.8515591943054</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.86271419048811</v>
+        <v>69.86271419048828</v>
       </c>
       <c r="T29" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087947</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6538892153287</v>
+        <v>255.6538892153289</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250119</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439304</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249452</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444972</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831854</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9357313989399</v>
+        <v>163.9357313989401</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.5021430764246</v>
       </c>
       <c r="I31" t="n">
-        <v>75.20779664199107</v>
+        <v>78.96292111240004</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.9548995066969</v>
+        <v>33.6497232857077</v>
       </c>
       <c r="T31" t="n">
-        <v>238.0916429637043</v>
+        <v>238.0916429637045</v>
       </c>
       <c r="U31" t="n">
-        <v>277.346676635984</v>
+        <v>277.3466766359842</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180516</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892123</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>41.24094756768903</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H34" t="n">
-        <v>75.20779664199107</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.9548995066969</v>
@@ -3268,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>251.4020661887573</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>291.0604938950686</v>
       </c>
     </row>
     <row r="36">
@@ -3438,10 +3438,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>23.67846385210698</v>
+        <v>163.9357313989399</v>
       </c>
       <c r="H37" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>78.96292111239987</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.95209132584753</v>
+        <v>13.1969668554397</v>
       </c>
       <c r="S37" t="n">
         <v>156.9548995066969</v>
@@ -3511,16 +3511,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>391.4279493470048</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.909335895786448</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>29.99556994304018</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3678,10 +3678,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783873</v>
       </c>
       <c r="I40" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.9548995066969</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>330.0402961145178</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H41" t="n">
-        <v>120.1668415685448</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>29.99556994304018</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>160.7909993182666</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I43" t="n">
         <v>78.96292111239987</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>331.2745334694357</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>64.75038314421478</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>212.2884438087945</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>64.95913280395952</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,7 +4143,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28885624184201</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.95209132584753</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.9548995066969</v>
@@ -4312,7 +4312,7 @@
         <v>64.82049353730264</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E2" t="n">
         <v>23.63174095096858</v>
@@ -4330,25 +4330,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="L2" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K2" t="n">
-        <v>57.91959887360855</v>
-      </c>
-      <c r="L2" t="n">
-        <v>57.91959887360855</v>
-      </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N2" t="n">
         <v>57.91959887360855</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q2" t="n">
         <v>112.4652405312787</v>
@@ -4388,10 +4388,10 @@
         <v>84.0649272658043</v>
       </c>
       <c r="C3" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="D3" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="E3" t="n">
         <v>59.04993134157444</v>
@@ -4409,25 +4409,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J3" t="n">
-        <v>28.95979943680427</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L3" t="n">
-        <v>28.95979943680427</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M3" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="P3" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="N3" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="O3" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="P3" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
         <v>84.63009349978725</v>
@@ -4473,10 +4473,10 @@
         <v>84.0649272658043</v>
       </c>
       <c r="E4" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F4" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G4" t="n">
         <v>59.04993134157444</v>
@@ -4494,16 +4494,16 @@
         <v>2.249304810625575</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N4" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O4" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P4" t="n">
         <v>84.63009349978725</v>
@@ -4515,22 +4515,22 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y4" t="n">
         <v>84.0649272658043</v>
@@ -4567,7 +4567,7 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K5" t="n">
         <v>30.08445184211706</v>
@@ -4576,19 +4576,19 @@
         <v>57.91959887360855</v>
       </c>
       <c r="M5" t="n">
-        <v>57.91959887360855</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="N5" t="n">
-        <v>57.91959887360855</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O5" t="n">
-        <v>57.91959887360855</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P5" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C6" t="n">
         <v>2.249304810625575</v>
@@ -4643,28 +4643,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="K6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="L6" t="n">
-        <v>30.08445184211706</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="M6" t="n">
-        <v>30.08445184211706</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="N6" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O6" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P6" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
         <v>84.63009349978725</v>
@@ -4673,25 +4673,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
-        <v>59.04993134157444</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W6" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X6" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.249304810625575</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="7">
@@ -4731,16 +4731,16 @@
         <v>30.08445184211706</v>
       </c>
       <c r="L7" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="M7" t="n">
         <v>57.91959887360855</v>
-      </c>
-      <c r="M7" t="n">
-        <v>85.75474590510004</v>
       </c>
       <c r="N7" t="n">
         <v>85.75474590510004</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4652405312787</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="P7" t="n">
         <v>112.4652405312787</v>
@@ -4749,25 +4749,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="X7" t="n">
         <v>59.04993134157444</v>
-      </c>
-      <c r="X7" t="n">
-        <v>30.6496180761</v>
       </c>
       <c r="Y7" t="n">
         <v>30.6496180761</v>
@@ -4810,19 +4810,19 @@
         <v>57.91959887360855</v>
       </c>
       <c r="L8" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M8" t="n">
-        <v>57.91959887360855</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N8" t="n">
-        <v>57.91959887360855</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q8" t="n">
         <v>112.4652405312787</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>87.45024460704886</v>
+      </c>
+      <c r="C9" t="n">
         <v>59.04993134157444</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.6496180761</v>
       </c>
       <c r="D9" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F9" t="n">
         <v>2.249304810625575</v>
@@ -4886,25 +4886,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L9" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M9" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N9" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O9" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="P9" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="R9" t="n">
         <v>112.4652405312787</v>
@@ -4925,10 +4925,10 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X9" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.04993134157444</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="10">
@@ -4965,7 +4965,7 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L10" t="n">
         <v>30.08445184211706</v>
@@ -4974,31 +4974,31 @@
         <v>30.08445184211706</v>
       </c>
       <c r="N10" t="n">
-        <v>57.91959887360855</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O10" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="P10" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="P10" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S10" t="n">
         <v>87.45024460704886</v>
       </c>
       <c r="T10" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="U10" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="V10" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="W10" t="n">
         <v>2.249304810625575</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.84413985699</v>
+        <v>1389.4125380292</v>
       </c>
       <c r="C11" t="n">
-        <v>891.9434098702898</v>
+        <v>1389.4125380292</v>
       </c>
       <c r="D11" t="n">
-        <v>891.9434098702898</v>
+        <v>966.1199172142003</v>
       </c>
       <c r="E11" t="n">
-        <v>482.8152702692147</v>
+        <v>540.1429773620579</v>
       </c>
       <c r="F11" t="n">
-        <v>57.69108845861495</v>
+        <v>115.0187955514581</v>
       </c>
       <c r="G11" t="n">
-        <v>57.69108845861495</v>
+        <v>115.0187955514581</v>
       </c>
       <c r="H11" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I11" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J11" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2979820334617</v>
+        <v>1050.692909056977</v>
       </c>
       <c r="L11" t="n">
-        <v>1037.225201708822</v>
+        <v>1242.16950585607</v>
       </c>
       <c r="M11" t="n">
-        <v>1255.426092822907</v>
+        <v>1460.370396970156</v>
       </c>
       <c r="N11" t="n">
-        <v>1969.353312498267</v>
+        <v>1682.851750486036</v>
       </c>
       <c r="O11" t="n">
-        <v>2177.269165842175</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.114123728345</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q11" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R11" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S11" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="T11" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="U11" t="n">
-        <v>2555.749773025882</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="V11" t="n">
-        <v>2555.749773025882</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="W11" t="n">
-        <v>2555.749773025882</v>
+        <v>2626.318171198092</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.029774193629</v>
+        <v>2214.59817236584</v>
       </c>
       <c r="Y11" t="n">
-        <v>1738.69250414852</v>
+        <v>1809.26090232073</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H12" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879401</v>
       </c>
       <c r="J12" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K12" t="n">
-        <v>407.534020744538</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L12" t="n">
-        <v>554.1257532950453</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.052972970405</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.216356643059</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O12" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q12" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R12" t="n">
         <v>1839.929095123789</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>976.4025787793929</v>
+        <v>989.7328483303422</v>
       </c>
       <c r="C13" t="n">
-        <v>804.4300156583089</v>
+        <v>817.7602852092582</v>
       </c>
       <c r="D13" t="n">
-        <v>641.1132427850796</v>
+        <v>654.4435123360289</v>
       </c>
       <c r="E13" t="n">
-        <v>474.9050369379331</v>
+        <v>488.2353064888824</v>
       </c>
       <c r="F13" t="n">
-        <v>303.0432627124936</v>
+        <v>316.3735322634428</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4516148347764</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H13" t="n">
         <v>137.4516148347764</v>
       </c>
       <c r="I13" t="n">
-        <v>57.69108845861495</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J13" t="n">
-        <v>161.2846086864219</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5722733880323</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L13" t="n">
-        <v>915.2083926800959</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M13" t="n">
         <v>1408.610993194761</v>
@@ -5220,31 +5220,31 @@
         <v>2702.951323608642</v>
       </c>
       <c r="Q13" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R13" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S13" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T13" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V13" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W13" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X13" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352666</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042408</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1563.979222336566</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="C14" t="n">
-        <v>1563.979222336566</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="D14" t="n">
-        <v>1140.686601521566</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="E14" t="n">
-        <v>1140.686601521566</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="F14" t="n">
         <v>743.2252726030217</v>
@@ -5272,58 +5272,58 @@
         <v>340.3694310791253</v>
       </c>
       <c r="H14" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I14" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J14" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2979820334617</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L14" t="n">
-        <v>514.7745788325551</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M14" t="n">
-        <v>1106.597688916453</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N14" t="n">
-        <v>1329.079042432333</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O14" t="n">
-        <v>2043.006262107693</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P14" t="n">
-        <v>2214.851219993863</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q14" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R14" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S14" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="T14" t="n">
-        <v>2599.553253234502</v>
+        <v>2670.121651406713</v>
       </c>
       <c r="U14" t="n">
-        <v>2341.317001501847</v>
+        <v>2411.885399674058</v>
       </c>
       <c r="V14" t="n">
-        <v>1983.827586628096</v>
+        <v>2054.395984800308</v>
       </c>
       <c r="W14" t="n">
-        <v>1983.827586628096</v>
+        <v>1658.004635100655</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.827586628096</v>
+        <v>1246.284636268402</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.827586628096</v>
+        <v>840.9473662232923</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H15" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I15" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879401</v>
       </c>
       <c r="J15" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K15" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L15" t="n">
-        <v>938.8897882296997</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M15" t="n">
-        <v>1113.1009169088</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N15" t="n">
-        <v>1294.264300581453</v>
+        <v>1343.760856358152</v>
       </c>
       <c r="O15" t="n">
-        <v>1456.382686782295</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.307417114941</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q15" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R15" t="n">
         <v>1839.929095123789</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303422</v>
       </c>
       <c r="C16" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092582</v>
       </c>
       <c r="D16" t="n">
-        <v>778.9941953875286</v>
+        <v>654.4435123360289</v>
       </c>
       <c r="E16" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888824</v>
       </c>
       <c r="F16" t="n">
-        <v>440.9242153149426</v>
+        <v>316.3735322634428</v>
       </c>
       <c r="G16" t="n">
-        <v>275.3325674372254</v>
+        <v>150.7818843857257</v>
       </c>
       <c r="H16" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I16" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J16" t="n">
         <v>161.2846086864215</v>
@@ -5451,37 +5451,37 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O16" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P16" t="n">
         <v>2702.951323608642</v>
       </c>
       <c r="Q16" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R16" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S16" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T16" t="n">
-        <v>2468.39418677292</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U16" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V16" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W16" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X16" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352666</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042408</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.517893418021</v>
+        <v>2161.841402446954</v>
       </c>
       <c r="C17" t="n">
-        <v>1166.517893418021</v>
+        <v>1734.940672460254</v>
       </c>
       <c r="D17" t="n">
-        <v>743.2252726030217</v>
+        <v>1311.648051645254</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2252726030217</v>
+        <v>885.6711117931115</v>
       </c>
       <c r="F17" t="n">
-        <v>743.2252726030217</v>
+        <v>460.5469299825116</v>
       </c>
       <c r="G17" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H17" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I17" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J17" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2979820334617</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L17" t="n">
-        <v>1037.225201708822</v>
+        <v>1242.16950585607</v>
       </c>
       <c r="M17" t="n">
-        <v>1255.426092822907</v>
+        <v>1460.370396970156</v>
       </c>
       <c r="N17" t="n">
-        <v>1969.353312498267</v>
+        <v>1682.851750486036</v>
       </c>
       <c r="O17" t="n">
-        <v>2534.855169470428</v>
+        <v>1890.767603829943</v>
       </c>
       <c r="P17" t="n">
-        <v>2706.700127356598</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q17" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470532</v>
       </c>
       <c r="R17" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S17" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.121651406712</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="U17" t="n">
-        <v>2411.885399674057</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="V17" t="n">
-        <v>2379.966511995037</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="W17" t="n">
-        <v>1983.575162295384</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="X17" t="n">
-        <v>1571.855163463131</v>
+        <v>2581.689766738484</v>
       </c>
       <c r="Y17" t="n">
-        <v>1166.517893418021</v>
+        <v>2581.689766738484</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H18" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I18" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879401</v>
       </c>
       <c r="J18" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K18" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L18" t="n">
-        <v>938.8897882296997</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M18" t="n">
-        <v>1113.1009169088</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N18" t="n">
-        <v>1449.216356643059</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O18" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q18" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R18" t="n">
         <v>1839.929095123789</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303398</v>
       </c>
       <c r="C19" t="n">
-        <v>800.6369606376943</v>
+        <v>817.7602852092557</v>
       </c>
       <c r="D19" t="n">
-        <v>637.320187764465</v>
+        <v>778.9941953875293</v>
       </c>
       <c r="E19" t="n">
-        <v>471.1119819173185</v>
+        <v>612.7859895403827</v>
       </c>
       <c r="F19" t="n">
-        <v>299.2502076918789</v>
+        <v>440.924215314943</v>
       </c>
       <c r="G19" t="n">
-        <v>133.6585598141618</v>
+        <v>275.3325674372257</v>
       </c>
       <c r="H19" t="n">
-        <v>133.6585598141618</v>
+        <v>137.4516148347766</v>
       </c>
       <c r="I19" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J19" t="n">
         <v>161.2846086864215</v>
@@ -5679,46 +5679,46 @@
         <v>463.5722733880319</v>
       </c>
       <c r="L19" t="n">
-        <v>915.2083926800954</v>
+        <v>915.2083926800958</v>
       </c>
       <c r="M19" t="n">
         <v>1408.610993194761</v>
       </c>
       <c r="N19" t="n">
-        <v>1885.888822445159</v>
+        <v>1885.88882244516</v>
       </c>
       <c r="O19" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P19" t="n">
-        <v>2702.951323608642</v>
+        <v>2702.951323608643</v>
       </c>
       <c r="Q19" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R19" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S19" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T19" t="n">
-        <v>2468.39418677292</v>
+        <v>2485.517511344483</v>
       </c>
       <c r="U19" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126317</v>
       </c>
       <c r="V19" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734346</v>
       </c>
       <c r="W19" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.805481906859</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352664</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042406</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1594.326394265764</v>
+        <v>1647.648789761855</v>
       </c>
       <c r="C20" t="n">
-        <v>1594.326394265764</v>
+        <v>1220.748059775155</v>
       </c>
       <c r="D20" t="n">
-        <v>1594.326394265764</v>
+        <v>797.4554389601549</v>
       </c>
       <c r="E20" t="n">
-        <v>1168.349454413622</v>
+        <v>371.4784991080123</v>
       </c>
       <c r="F20" t="n">
-        <v>743.2252726030217</v>
+        <v>371.4784991080123</v>
       </c>
       <c r="G20" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H20" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I20" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J20" t="n">
-        <v>173.7882360108206</v>
+        <v>511.3395595228965</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2979820334617</v>
+        <v>660.8493055455376</v>
       </c>
       <c r="L20" t="n">
-        <v>514.7745788325551</v>
+        <v>852.325902344631</v>
       </c>
       <c r="M20" t="n">
-        <v>732.9754699466407</v>
+        <v>1070.526793458717</v>
       </c>
       <c r="N20" t="n">
-        <v>1278.845688005878</v>
+        <v>1293.008146974597</v>
       </c>
       <c r="O20" t="n">
-        <v>1992.772907681238</v>
+        <v>1500.924000318504</v>
       </c>
       <c r="P20" t="n">
-        <v>2706.700127356598</v>
+        <v>2214.851219993864</v>
       </c>
       <c r="Q20" t="n">
-        <v>2827.920462748282</v>
+        <v>2827.920462748283</v>
       </c>
       <c r="R20" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S20" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="T20" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="U20" t="n">
-        <v>2555.749773025881</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="V20" t="n">
-        <v>2555.749773025881</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="W20" t="n">
-        <v>2555.749773025881</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="X20" t="n">
-        <v>2144.029774193628</v>
+        <v>2472.834424098495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1738.692504148519</v>
+        <v>2067.497154053385</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H21" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I21" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879401</v>
       </c>
       <c r="J21" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K21" t="n">
-        <v>224.9625685543398</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L21" t="n">
-        <v>371.5543011048471</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M21" t="n">
-        <v>575.6429272811804</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N21" t="n">
-        <v>756.8063109538336</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O21" t="n">
-        <v>918.9246971546758</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P21" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q21" t="n">
         <v>1709.617917594659</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303398</v>
       </c>
       <c r="C22" t="n">
-        <v>800.6369606376943</v>
+        <v>817.7602852092557</v>
       </c>
       <c r="D22" t="n">
-        <v>637.320187764465</v>
+        <v>778.9941953875293</v>
       </c>
       <c r="E22" t="n">
-        <v>471.1119819173185</v>
+        <v>612.7859895403827</v>
       </c>
       <c r="F22" t="n">
-        <v>299.2502076918789</v>
+        <v>440.924215314943</v>
       </c>
       <c r="G22" t="n">
-        <v>137.4516148347764</v>
+        <v>275.3325674372257</v>
       </c>
       <c r="H22" t="n">
-        <v>137.4516148347764</v>
+        <v>137.4516148347766</v>
       </c>
       <c r="I22" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="J22" t="n">
-        <v>161.2846086864215</v>
+        <v>161.284608686422</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5722733880318</v>
+        <v>463.572273388032</v>
       </c>
       <c r="L22" t="n">
-        <v>915.2083926800952</v>
+        <v>915.2083926800958</v>
       </c>
       <c r="M22" t="n">
         <v>1408.610993194761</v>
@@ -5925,37 +5925,37 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O22" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P22" t="n">
-        <v>2702.951323608642</v>
+        <v>2702.951323608643</v>
       </c>
       <c r="Q22" t="n">
-        <v>2884.554422930747</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="R22" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S22" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T22" t="n">
-        <v>2468.39418677292</v>
+        <v>2485.517511344483</v>
       </c>
       <c r="U22" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126317</v>
       </c>
       <c r="V22" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734346</v>
       </c>
       <c r="W22" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.805481906859</v>
       </c>
       <c r="X22" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352664</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042406</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C23" t="n">
         <v>2060.353487352354</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.060866537354</v>
+        <v>1637.060866537355</v>
       </c>
       <c r="E23" t="n">
         <v>1211.083926685212</v>
@@ -5980,7 +5980,7 @@
         <v>785.9597448746117</v>
       </c>
       <c r="G23" t="n">
-        <v>383.1039033507153</v>
+        <v>383.1039033507155</v>
       </c>
       <c r="H23" t="n">
         <v>100.425560730205</v>
@@ -5989,31 +5989,31 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J23" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K23" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L23" t="n">
-        <v>1239.778489711</v>
+        <v>1751.252532172241</v>
       </c>
       <c r="M23" t="n">
-        <v>2482.544803747287</v>
+        <v>1969.453423286327</v>
       </c>
       <c r="N23" t="n">
-        <v>3718.184042355969</v>
+        <v>2191.934776802207</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.099895699876</v>
+        <v>3282.01233005939</v>
       </c>
       <c r="P23" t="n">
-        <v>4843.423740936103</v>
+        <v>4199.336175295617</v>
       </c>
       <c r="Q23" t="n">
-        <v>4964.644076327787</v>
+        <v>4812.405418050036</v>
       </c>
       <c r="R23" t="n">
-        <v>5021.278036510252</v>
+        <v>5021.278036510253</v>
       </c>
       <c r="S23" t="n">
         <v>4950.709638338042</v>
@@ -6025,16 +6025,16 @@
         <v>4478.040615081351</v>
       </c>
       <c r="V23" t="n">
-        <v>4120.551200207599</v>
+        <v>4120.551200207601</v>
       </c>
       <c r="W23" t="n">
-        <v>3724.159850507946</v>
+        <v>3724.159850507948</v>
       </c>
       <c r="X23" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675695</v>
       </c>
       <c r="Y23" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630585</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.0910196371351</v>
+        <v>659.0910196371352</v>
       </c>
       <c r="C24" t="n">
-        <v>541.5851161546399</v>
+        <v>541.58511615464</v>
       </c>
       <c r="D24" t="n">
-        <v>437.7451576699249</v>
+        <v>437.745157669925</v>
       </c>
       <c r="E24" t="n">
-        <v>333.0432239428621</v>
+        <v>333.0432239428622</v>
       </c>
       <c r="F24" t="n">
-        <v>239.3973936257663</v>
+        <v>239.3973936257664</v>
       </c>
       <c r="G24" t="n">
         <v>146.1372149809801</v>
@@ -6065,31 +6065,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1944372259722</v>
+        <v>134.6517430703841</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K24" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399328</v>
       </c>
       <c r="L24" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904402</v>
       </c>
       <c r="M24" t="n">
-        <v>588.4999020555376</v>
+        <v>904.0597003695407</v>
       </c>
       <c r="N24" t="n">
-        <v>769.6632857281909</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O24" t="n">
-        <v>1167.404170346623</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P24" t="n">
-        <v>1294.376844617663</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q24" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R24" t="n">
         <v>1882.663567395379</v>
@@ -6107,13 +6107,13 @@
         <v>1287.709641104025</v>
       </c>
       <c r="W24" t="n">
-        <v>1091.188263937242</v>
+        <v>1091.188263937243</v>
       </c>
       <c r="X24" t="n">
-        <v>927.7109177039055</v>
+        <v>927.7109177039056</v>
       </c>
       <c r="Y24" t="n">
-        <v>788.0180290571979</v>
+        <v>788.018029057198</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.343996030368</v>
+        <v>1157.018003653433</v>
       </c>
       <c r="C25" t="n">
-        <v>843.3714329092841</v>
+        <v>985.0454405323489</v>
       </c>
       <c r="D25" t="n">
-        <v>680.0546600360548</v>
+        <v>821.7286676591194</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8464541889083</v>
+        <v>655.5204618119728</v>
       </c>
       <c r="F25" t="n">
-        <v>341.9846799634687</v>
+        <v>483.6586875865331</v>
       </c>
       <c r="G25" t="n">
-        <v>318.0670397088155</v>
+        <v>318.0670397088159</v>
       </c>
       <c r="H25" t="n">
-        <v>180.1860871063665</v>
+        <v>180.1860871063667</v>
       </c>
       <c r="I25" t="n">
         <v>100.425560730205</v>
       </c>
       <c r="J25" t="n">
-        <v>204.0190809580116</v>
+        <v>204.0190809580114</v>
       </c>
       <c r="K25" t="n">
-        <v>506.306745659622</v>
+        <v>506.3067456596217</v>
       </c>
       <c r="L25" t="n">
-        <v>957.9428649516856</v>
+        <v>957.9428649516851</v>
       </c>
       <c r="M25" t="n">
-        <v>1451.345465466351</v>
+        <v>1451.34546546635</v>
       </c>
       <c r="N25" t="n">
-        <v>1928.623294716749</v>
+        <v>1928.623294716748</v>
       </c>
       <c r="O25" t="n">
-        <v>2376.220239298882</v>
+        <v>2376.220239298881</v>
       </c>
       <c r="P25" t="n">
         <v>2745.685795880232</v>
@@ -6171,28 +6171,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R25" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S25" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.748592670319</v>
       </c>
       <c r="T25" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616072</v>
       </c>
       <c r="U25" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397906</v>
       </c>
       <c r="V25" t="n">
-        <v>1949.269033434374</v>
+        <v>2090.94304105744</v>
       </c>
       <c r="W25" t="n">
-        <v>1674.416629606887</v>
+        <v>1816.090637229952</v>
       </c>
       <c r="X25" t="n">
-        <v>1431.852733052692</v>
+        <v>1573.526740675757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.509964742434</v>
+        <v>1347.183972365499</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2487.254217339054</v>
+        <v>2487.254217339055</v>
       </c>
       <c r="C26" t="n">
         <v>2060.353487352354</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.060866537354</v>
+        <v>1637.060866537355</v>
       </c>
       <c r="E26" t="n">
         <v>1211.083926685212</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746122</v>
       </c>
       <c r="G26" t="n">
-        <v>383.1039033507153</v>
+        <v>383.1039033507155</v>
       </c>
       <c r="H26" t="n">
         <v>100.425560730205</v>
@@ -6226,52 +6226,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J26" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K26" t="n">
-        <v>366.0324543050519</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L26" t="n">
-        <v>1525.063020731719</v>
+        <v>1751.252532172241</v>
       </c>
       <c r="M26" t="n">
-        <v>2767.829334768006</v>
+        <v>1969.453423286327</v>
       </c>
       <c r="N26" t="n">
-        <v>4003.468573376688</v>
+        <v>2191.934776802207</v>
       </c>
       <c r="O26" t="n">
-        <v>4519.340124772179</v>
+        <v>3282.01233005939</v>
       </c>
       <c r="P26" t="n">
-        <v>4691.18508265835</v>
+        <v>4199.336175295617</v>
       </c>
       <c r="Q26" t="n">
-        <v>4812.405418050033</v>
+        <v>4812.405418050036</v>
       </c>
       <c r="R26" t="n">
-        <v>5021.27803651025</v>
+        <v>5021.278036510253</v>
       </c>
       <c r="S26" t="n">
-        <v>4950.70963833804</v>
+        <v>4950.709638338042</v>
       </c>
       <c r="T26" t="n">
-        <v>4736.276866814005</v>
+        <v>4736.276866814007</v>
       </c>
       <c r="U26" t="n">
-        <v>4478.04061508135</v>
+        <v>4478.040615081352</v>
       </c>
       <c r="V26" t="n">
-        <v>4120.551200207599</v>
+        <v>4120.551200207601</v>
       </c>
       <c r="W26" t="n">
-        <v>3724.159850507946</v>
+        <v>3724.159850507948</v>
       </c>
       <c r="X26" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675696</v>
       </c>
       <c r="Y26" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630586</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>659.0910196371351</v>
+        <v>659.0910196371352</v>
       </c>
       <c r="C27" t="n">
-        <v>541.5851161546399</v>
+        <v>541.58511615464</v>
       </c>
       <c r="D27" t="n">
-        <v>437.7451576699249</v>
+        <v>437.745157669925</v>
       </c>
       <c r="E27" t="n">
-        <v>333.0432239428621</v>
+        <v>333.0432239428622</v>
       </c>
       <c r="F27" t="n">
-        <v>239.3973936257663</v>
+        <v>239.3973936257664</v>
       </c>
       <c r="G27" t="n">
         <v>146.1372149809801</v>
@@ -6302,31 +6302,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1944372259722</v>
+        <v>134.6517430703841</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K27" t="n">
-        <v>880.3572088892695</v>
+        <v>884.5290837274814</v>
       </c>
       <c r="L27" t="n">
-        <v>1136.576316562894</v>
+        <v>1031.120816277989</v>
       </c>
       <c r="M27" t="n">
-        <v>1310.787445241995</v>
+        <v>1205.331944957089</v>
       </c>
       <c r="N27" t="n">
-        <v>1491.950828914648</v>
+        <v>1386.495328629743</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.06921511549</v>
+        <v>1548.613714830585</v>
       </c>
       <c r="P27" t="n">
-        <v>1781.041889386531</v>
+        <v>1675.586389101626</v>
       </c>
       <c r="Q27" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R27" t="n">
         <v>1882.663567395379</v>
@@ -6344,13 +6344,13 @@
         <v>1287.709641104025</v>
       </c>
       <c r="W27" t="n">
-        <v>1091.188263937242</v>
+        <v>1091.188263937243</v>
       </c>
       <c r="X27" t="n">
-        <v>927.7109177039055</v>
+        <v>927.7109177039056</v>
       </c>
       <c r="Y27" t="n">
-        <v>788.0180290571979</v>
+        <v>788.018029057198</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.343996030368</v>
+        <v>1032.467320601919</v>
       </c>
       <c r="C28" t="n">
-        <v>843.3714329092841</v>
+        <v>860.4947574808353</v>
       </c>
       <c r="D28" t="n">
-        <v>741.9681412829572</v>
+        <v>697.1779846076058</v>
       </c>
       <c r="E28" t="n">
-        <v>575.7599354358107</v>
+        <v>530.9697787604592</v>
       </c>
       <c r="F28" t="n">
-        <v>403.8981612103711</v>
+        <v>359.1080045350195</v>
       </c>
       <c r="G28" t="n">
-        <v>238.306513332654</v>
+        <v>193.5163566573022</v>
       </c>
       <c r="H28" t="n">
         <v>100.425560730205</v>
@@ -6390,7 +6390,7 @@
         <v>506.306745659622</v>
       </c>
       <c r="L28" t="n">
-        <v>957.9428649516856</v>
+        <v>957.9428649516857</v>
       </c>
       <c r="M28" t="n">
         <v>1451.345465466351</v>
@@ -6405,31 +6405,31 @@
         <v>2745.685795880232</v>
       </c>
       <c r="Q28" t="n">
-        <v>2927.288895202337</v>
+        <v>2927.288895202328</v>
       </c>
       <c r="R28" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202328</v>
       </c>
       <c r="S28" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.74859267031</v>
       </c>
       <c r="T28" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616063</v>
       </c>
       <c r="U28" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397897</v>
       </c>
       <c r="V28" t="n">
-        <v>1949.269033434374</v>
+        <v>1966.392358005926</v>
       </c>
       <c r="W28" t="n">
-        <v>1674.416629606887</v>
+        <v>1691.539954178439</v>
       </c>
       <c r="X28" t="n">
-        <v>1431.852733052692</v>
+        <v>1448.976057624244</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.509964742434</v>
+        <v>1222.633289313985</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2487.254217339055</v>
       </c>
       <c r="C29" t="n">
-        <v>2060.353487352355</v>
+        <v>2060.353487352354</v>
       </c>
       <c r="D29" t="n">
         <v>1637.060866537355</v>
@@ -6451,10 +6451,10 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9597448746117</v>
+        <v>785.9597448746122</v>
       </c>
       <c r="G29" t="n">
-        <v>383.1039033507153</v>
+        <v>383.1039033507155</v>
       </c>
       <c r="H29" t="n">
         <v>100.425560730205</v>
@@ -6466,25 +6466,25 @@
         <v>216.5227082824107</v>
       </c>
       <c r="K29" t="n">
-        <v>1116.947717067412</v>
+        <v>366.0324543050519</v>
       </c>
       <c r="L29" t="n">
-        <v>2275.978283494079</v>
+        <v>1525.063020731719</v>
       </c>
       <c r="M29" t="n">
-        <v>2494.179174608164</v>
+        <v>2767.829334768006</v>
       </c>
       <c r="N29" t="n">
-        <v>2716.660528124045</v>
+        <v>4003.468573376689</v>
       </c>
       <c r="O29" t="n">
-        <v>3282.01233005939</v>
+        <v>4671.578783049933</v>
       </c>
       <c r="P29" t="n">
-        <v>4199.336175295617</v>
+        <v>4843.423740936103</v>
       </c>
       <c r="Q29" t="n">
-        <v>4812.405418050035</v>
+        <v>4964.644076327787</v>
       </c>
       <c r="R29" t="n">
         <v>5021.278036510252</v>
@@ -6499,10 +6499,10 @@
         <v>4478.040615081351</v>
       </c>
       <c r="V29" t="n">
-        <v>4120.5512002076</v>
+        <v>4120.551200207601</v>
       </c>
       <c r="W29" t="n">
-        <v>3724.159850507947</v>
+        <v>3724.159850507948</v>
       </c>
       <c r="X29" t="n">
         <v>3312.439851675695</v>
@@ -6539,31 +6539,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1944372259722</v>
+        <v>134.6517430703841</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K30" t="n">
-        <v>267.6970408259299</v>
+        <v>583.2568391399328</v>
       </c>
       <c r="L30" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904402</v>
       </c>
       <c r="M30" t="n">
-        <v>588.4999020555379</v>
+        <v>904.0597003695407</v>
       </c>
       <c r="N30" t="n">
-        <v>769.6632857281911</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O30" t="n">
-        <v>931.7816719290333</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P30" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q30" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R30" t="n">
         <v>1882.663567395379</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.343996030368</v>
+        <v>1157.018003653433</v>
       </c>
       <c r="C31" t="n">
-        <v>843.3714329092841</v>
+        <v>985.0454405323489</v>
       </c>
       <c r="D31" t="n">
-        <v>680.0546600360548</v>
+        <v>821.7286676591194</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8464541889083</v>
+        <v>655.5204618119728</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9846799634687</v>
+        <v>483.6586875865331</v>
       </c>
       <c r="G31" t="n">
-        <v>176.3930320857516</v>
+        <v>318.0670397088159</v>
       </c>
       <c r="H31" t="n">
-        <v>176.3930320857516</v>
+        <v>180.1860871063667</v>
       </c>
       <c r="I31" t="n">
         <v>100.425560730205</v>
       </c>
       <c r="J31" t="n">
-        <v>204.0190809580116</v>
+        <v>204.0190809580114</v>
       </c>
       <c r="K31" t="n">
-        <v>506.306745659622</v>
+        <v>506.3067456596217</v>
       </c>
       <c r="L31" t="n">
-        <v>957.9428649516857</v>
+        <v>957.9428649516851</v>
       </c>
       <c r="M31" t="n">
-        <v>1451.345465466351</v>
+        <v>1451.34546546635</v>
       </c>
       <c r="N31" t="n">
-        <v>1928.623294716749</v>
+        <v>1928.623294716748</v>
       </c>
       <c r="O31" t="n">
-        <v>2376.220239298882</v>
+        <v>2376.220239298881</v>
       </c>
       <c r="P31" t="n">
         <v>2745.685795880232</v>
@@ -6645,28 +6645,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R31" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S31" t="n">
-        <v>2751.625268098757</v>
+        <v>2893.299275721824</v>
       </c>
       <c r="T31" t="n">
-        <v>2511.128659044511</v>
+        <v>2652.802666667577</v>
       </c>
       <c r="U31" t="n">
-        <v>2230.980500826345</v>
+        <v>2372.654508449411</v>
       </c>
       <c r="V31" t="n">
-        <v>1949.269033434374</v>
+        <v>2090.94304105744</v>
       </c>
       <c r="W31" t="n">
-        <v>1674.416629606887</v>
+        <v>1816.090637229952</v>
       </c>
       <c r="X31" t="n">
-        <v>1431.852733052692</v>
+        <v>1573.526740675757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1205.509964742434</v>
+        <v>1347.183972365499</v>
       </c>
     </row>
     <row r="32">
@@ -6700,37 +6700,37 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J32" t="n">
-        <v>216.5227082824107</v>
+        <v>608.251926990037</v>
       </c>
       <c r="K32" t="n">
-        <v>366.0324543050519</v>
+        <v>1508.676935775039</v>
       </c>
       <c r="L32" t="n">
-        <v>1525.063020731719</v>
+        <v>1751.252532172241</v>
       </c>
       <c r="M32" t="n">
-        <v>1743.263911845804</v>
+        <v>1969.453423286327</v>
       </c>
       <c r="N32" t="n">
-        <v>2978.903150454487</v>
+        <v>2191.934776802207</v>
       </c>
       <c r="O32" t="n">
-        <v>4068.980703711671</v>
+        <v>3282.01233005939</v>
       </c>
       <c r="P32" t="n">
-        <v>4843.423740936103</v>
+        <v>4199.336175295617</v>
       </c>
       <c r="Q32" t="n">
-        <v>4964.644076327787</v>
+        <v>4812.405418050035</v>
       </c>
       <c r="R32" t="n">
         <v>5021.278036510252</v>
       </c>
       <c r="S32" t="n">
-        <v>4950.709638338042</v>
+        <v>4950.709638338041</v>
       </c>
       <c r="T32" t="n">
-        <v>4736.276866814007</v>
+        <v>4736.276866814006</v>
       </c>
       <c r="U32" t="n">
         <v>4478.040615081351</v>
@@ -6776,28 +6776,28 @@
         <v>100.425560730205</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1944372259722</v>
+        <v>134.6517430703841</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K33" t="n">
-        <v>267.6970408259299</v>
+        <v>583.2568391399328</v>
       </c>
       <c r="L33" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904402</v>
       </c>
       <c r="M33" t="n">
-        <v>588.4999020555379</v>
+        <v>904.0597003695407</v>
       </c>
       <c r="N33" t="n">
-        <v>769.6632857281911</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O33" t="n">
-        <v>931.7816719290333</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P33" t="n">
-        <v>1675.586389101626</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q33" t="n">
         <v>1752.352389866249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.343996030368</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C34" t="n">
-        <v>843.3714329092841</v>
+        <v>860.4947574808471</v>
       </c>
       <c r="D34" t="n">
-        <v>680.0546600360548</v>
+        <v>697.1779846076178</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8464541889083</v>
+        <v>655.5204618119723</v>
       </c>
       <c r="F34" t="n">
-        <v>341.9846799634687</v>
+        <v>483.6586875865327</v>
       </c>
       <c r="G34" t="n">
-        <v>176.3930320857516</v>
+        <v>318.0670397088155</v>
       </c>
       <c r="H34" t="n">
-        <v>100.425560730205</v>
+        <v>180.1860871063665</v>
       </c>
       <c r="I34" t="n">
         <v>100.425560730205</v>
@@ -6882,28 +6882,28 @@
         <v>2927.288895202337</v>
       </c>
       <c r="R34" t="n">
-        <v>2910.165570630774</v>
+        <v>2927.288895202337</v>
       </c>
       <c r="S34" t="n">
-        <v>2751.625268098757</v>
+        <v>2768.74859267032</v>
       </c>
       <c r="T34" t="n">
-        <v>2511.128659044511</v>
+        <v>2528.251983616074</v>
       </c>
       <c r="U34" t="n">
-        <v>2230.980500826345</v>
+        <v>2248.103825397908</v>
       </c>
       <c r="V34" t="n">
-        <v>1949.269033434374</v>
+        <v>1966.392358005937</v>
       </c>
       <c r="W34" t="n">
-        <v>1674.416629606887</v>
+        <v>1691.53995417845</v>
       </c>
       <c r="X34" t="n">
-        <v>1431.852733052692</v>
+        <v>1448.976057624255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.509964742434</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1332.084830936357</v>
+        <v>1758.985560923057</v>
       </c>
       <c r="C35" t="n">
         <v>1332.084830936357</v>
@@ -6937,52 +6937,52 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J35" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2979820334618</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L35" t="n">
-        <v>514.7745788325553</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.701798507915</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N35" t="n">
-        <v>1451.183152023796</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O35" t="n">
-        <v>2043.006262107693</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P35" t="n">
-        <v>2214.851219993864</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q35" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R35" t="n">
         <v>2884.554422930747</v>
       </c>
       <c r="S35" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="T35" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="U35" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="V35" t="n">
-        <v>2560.044543759793</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="W35" t="n">
-        <v>2163.65319406014</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="X35" t="n">
-        <v>1751.933195227887</v>
+        <v>2472.834424098495</v>
       </c>
       <c r="Y35" t="n">
-        <v>1751.933195227887</v>
+        <v>2178.833925214587</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I36" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J36" t="n">
-        <v>251.707062794805</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K36" t="n">
-        <v>355.1295666870233</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L36" t="n">
-        <v>501.7212992375307</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M36" t="n">
-        <v>675.9324279166312</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N36" t="n">
-        <v>857.0958115892845</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O36" t="n">
-        <v>1019.214197790127</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P36" t="n">
-        <v>1146.186872061168</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q36" t="n">
         <v>1709.617917594659</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.6095237587783</v>
+        <v>976.4025787793929</v>
       </c>
       <c r="C37" t="n">
-        <v>800.6369606376943</v>
+        <v>804.4300156583089</v>
       </c>
       <c r="D37" t="n">
-        <v>637.320187764465</v>
+        <v>641.1132427850796</v>
       </c>
       <c r="E37" t="n">
-        <v>471.1119819173185</v>
+        <v>474.9050369379331</v>
       </c>
       <c r="F37" t="n">
-        <v>299.2502076918789</v>
+        <v>303.0432627124936</v>
       </c>
       <c r="G37" t="n">
-        <v>275.3325674372254</v>
+        <v>137.4516148347764</v>
       </c>
       <c r="H37" t="n">
         <v>137.4516148347764</v>
@@ -7119,28 +7119,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R37" t="n">
-        <v>2867.431098359184</v>
+        <v>2871.224153379798</v>
       </c>
       <c r="S37" t="n">
-        <v>2708.890795827167</v>
+        <v>2712.683850847781</v>
       </c>
       <c r="T37" t="n">
-        <v>2468.394186772921</v>
+        <v>2472.187241793535</v>
       </c>
       <c r="U37" t="n">
-        <v>2188.246028554755</v>
+        <v>2192.039083575369</v>
       </c>
       <c r="V37" t="n">
-        <v>1906.534561162784</v>
+        <v>1910.327616183398</v>
       </c>
       <c r="W37" t="n">
-        <v>1631.682157335297</v>
+        <v>1635.475212355911</v>
       </c>
       <c r="X37" t="n">
-        <v>1389.118260781102</v>
+        <v>1392.911315801716</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.775492470844</v>
+        <v>1166.568547491459</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1988.800390421898</v>
+        <v>1758.985560923057</v>
       </c>
       <c r="C38" t="n">
-        <v>1561.899660435198</v>
+        <v>1332.084830936357</v>
       </c>
       <c r="D38" t="n">
-        <v>1138.607039620198</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E38" t="n">
-        <v>1138.607039620198</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F38" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G38" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H38" t="n">
         <v>57.69108845861495</v>
@@ -7174,28 +7174,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J38" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K38" t="n">
-        <v>887.7154556861807</v>
+        <v>1000.459554630522</v>
       </c>
       <c r="L38" t="n">
-        <v>1601.642675361541</v>
+        <v>1191.936151429615</v>
       </c>
       <c r="M38" t="n">
-        <v>1819.843566475626</v>
+        <v>1410.137042543701</v>
       </c>
       <c r="N38" t="n">
-        <v>2042.324919991506</v>
+        <v>1632.618396059581</v>
       </c>
       <c r="O38" t="n">
-        <v>2250.240773335414</v>
+        <v>1840.534249403488</v>
       </c>
       <c r="P38" t="n">
-        <v>2422.085731221584</v>
+        <v>2554.461469078848</v>
       </c>
       <c r="Q38" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R38" t="n">
         <v>2884.554422930747</v>
@@ -7204,22 +7204,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T38" t="n">
-        <v>2813.986024758537</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U38" t="n">
-        <v>2813.986024758537</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="V38" t="n">
-        <v>2813.986024758537</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="W38" t="n">
-        <v>2813.986024758537</v>
+        <v>2590.55392404684</v>
       </c>
       <c r="X38" t="n">
-        <v>2813.986024758537</v>
+        <v>2178.833925214587</v>
       </c>
       <c r="Y38" t="n">
-        <v>2408.648754713428</v>
+        <v>2178.833925214587</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I39" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J39" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K39" t="n">
-        <v>224.9625685543398</v>
+        <v>841.7946114558912</v>
       </c>
       <c r="L39" t="n">
-        <v>371.5543011048472</v>
+        <v>988.3863440063985</v>
       </c>
       <c r="M39" t="n">
-        <v>545.7654297839479</v>
+        <v>1162.597472685499</v>
       </c>
       <c r="N39" t="n">
-        <v>726.9288134566011</v>
+        <v>1343.760856358152</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.380197439581</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.307417114941</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q39" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R39" t="n">
         <v>1839.929095123789</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>972.6095237587783</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C40" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D40" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E40" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F40" t="n">
-        <v>440.9242153149426</v>
+        <v>316.3735322634419</v>
       </c>
       <c r="G40" t="n">
-        <v>275.3325674372254</v>
+        <v>150.7818843857248</v>
       </c>
       <c r="H40" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I40" t="n">
         <v>57.69108845861495</v>
@@ -7335,10 +7335,10 @@
         <v>161.2846086864215</v>
       </c>
       <c r="K40" t="n">
-        <v>463.572273388032</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L40" t="n">
-        <v>915.2083926800958</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M40" t="n">
         <v>1408.610993194761</v>
@@ -7347,7 +7347,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O40" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P40" t="n">
         <v>2702.951323608642</v>
@@ -7356,28 +7356,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R40" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S40" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T40" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U40" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X40" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1433.952489828846</v>
+        <v>2068.314708939564</v>
       </c>
       <c r="C41" t="n">
-        <v>1007.051759842146</v>
+        <v>1734.940672460253</v>
       </c>
       <c r="D41" t="n">
-        <v>1007.051759842146</v>
+        <v>1311.648051645254</v>
       </c>
       <c r="E41" t="n">
-        <v>1007.051759842146</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="F41" t="n">
-        <v>581.9275780315465</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="G41" t="n">
-        <v>179.0717365076501</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H41" t="n">
         <v>57.69108845861495</v>
@@ -7411,22 +7411,22 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J41" t="n">
-        <v>173.7882360108207</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K41" t="n">
-        <v>887.7154556861807</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L41" t="n">
-        <v>1079.192052485274</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M41" t="n">
-        <v>1297.39294359936</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N41" t="n">
-        <v>1519.87429711524</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O41" t="n">
-        <v>1727.790150459147</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P41" t="n">
         <v>2062.612561716113</v>
@@ -7438,25 +7438,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S41" t="n">
-        <v>2813.986024758537</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="T41" t="n">
-        <v>2599.553253234503</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="U41" t="n">
-        <v>2599.553253234503</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="V41" t="n">
-        <v>2242.063838360752</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.672488661099</v>
+        <v>2488.163073231094</v>
       </c>
       <c r="X41" t="n">
-        <v>1433.952489828846</v>
+        <v>2488.163073231094</v>
       </c>
       <c r="Y41" t="n">
-        <v>1433.952489828846</v>
+        <v>2488.163073231094</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>57.69108845861495</v>
       </c>
       <c r="I42" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J42" t="n">
-        <v>251.707062794805</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K42" t="n">
-        <v>355.1295666870233</v>
+        <v>841.7946114558912</v>
       </c>
       <c r="L42" t="n">
-        <v>501.7212992375307</v>
+        <v>988.3863440063985</v>
       </c>
       <c r="M42" t="n">
-        <v>675.9324279166312</v>
+        <v>1162.597472685499</v>
       </c>
       <c r="N42" t="n">
-        <v>857.0958115892845</v>
+        <v>1343.760856358152</v>
       </c>
       <c r="O42" t="n">
-        <v>1019.214197790127</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P42" t="n">
-        <v>1146.186872061168</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q42" t="n">
         <v>1709.617917594659</v>
@@ -7548,19 +7548,19 @@
         <v>972.6095237587783</v>
       </c>
       <c r="C43" t="n">
-        <v>800.6369606376943</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D43" t="n">
-        <v>637.320187764465</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E43" t="n">
-        <v>474.9050369379331</v>
+        <v>612.7859895403822</v>
       </c>
       <c r="F43" t="n">
-        <v>303.0432627124936</v>
+        <v>440.9242153149426</v>
       </c>
       <c r="G43" t="n">
-        <v>137.4516148347764</v>
+        <v>275.3325674372254</v>
       </c>
       <c r="H43" t="n">
         <v>137.4516148347764</v>
@@ -7572,10 +7572,10 @@
         <v>161.2846086864215</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5722733880319</v>
+        <v>463.5722733880318</v>
       </c>
       <c r="L43" t="n">
-        <v>915.2083926800956</v>
+        <v>915.2083926800955</v>
       </c>
       <c r="M43" t="n">
         <v>1408.610993194761</v>
@@ -7584,7 +7584,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O43" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P43" t="n">
         <v>2702.951323608642</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1377.97626919821</v>
+        <v>1189.638991746267</v>
       </c>
       <c r="C44" t="n">
-        <v>951.07553921151</v>
+        <v>1189.638991746267</v>
       </c>
       <c r="D44" t="n">
-        <v>951.07553921151</v>
+        <v>766.3463709312678</v>
       </c>
       <c r="E44" t="n">
-        <v>951.07553921151</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="F44" t="n">
-        <v>525.9513574009102</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="G44" t="n">
-        <v>123.0955158770137</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H44" t="n">
         <v>57.69108845861495</v>
@@ -7648,28 +7648,28 @@
         <v>79.53261889552356</v>
       </c>
       <c r="J44" t="n">
-        <v>474.8418886906495</v>
+        <v>565.5174547184469</v>
       </c>
       <c r="K44" t="n">
-        <v>1188.76910836601</v>
+        <v>715.027200741088</v>
       </c>
       <c r="L44" t="n">
-        <v>1380.245705165103</v>
+        <v>906.5037975401815</v>
       </c>
       <c r="M44" t="n">
-        <v>1598.446596279188</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N44" t="n">
-        <v>1820.927949795069</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O44" t="n">
-        <v>2534.855169470429</v>
+        <v>1555.101895514055</v>
       </c>
       <c r="P44" t="n">
-        <v>2706.700127356599</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q44" t="n">
-        <v>2827.920462748282</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R44" t="n">
         <v>2884.554422930747</v>
@@ -7681,19 +7681,19 @@
         <v>2599.553253234503</v>
       </c>
       <c r="U44" t="n">
-        <v>2599.553253234503</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V44" t="n">
-        <v>2599.553253234503</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="W44" t="n">
-        <v>2203.161903534849</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="X44" t="n">
-        <v>2203.161903534849</v>
+        <v>1929.597002669595</v>
       </c>
       <c r="Y44" t="n">
-        <v>1797.82463348974</v>
+        <v>1524.259732624485</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1660.981875172504</v>
+        <v>616.3565473655451</v>
       </c>
       <c r="C45" t="n">
-        <v>1543.475971690009</v>
+        <v>498.8506438830499</v>
       </c>
       <c r="D45" t="n">
-        <v>1439.636013205294</v>
+        <v>395.0106853983349</v>
       </c>
       <c r="E45" t="n">
-        <v>1334.934079478231</v>
+        <v>290.3087516712721</v>
       </c>
       <c r="F45" t="n">
-        <v>1241.288249161135</v>
+        <v>196.6629213541763</v>
       </c>
       <c r="G45" t="n">
-        <v>1148.028070516349</v>
+        <v>103.40274270939</v>
       </c>
       <c r="H45" t="n">
-        <v>1102.316416265573</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I45" t="n">
-        <v>1113.085292761341</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J45" t="n">
-        <v>1166.16539246908</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K45" t="n">
-        <v>1269.587896361299</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L45" t="n">
-        <v>1416.179628911806</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M45" t="n">
-        <v>1590.390757590907</v>
+        <v>861.3252280979507</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.55414126356</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O45" t="n">
-        <v>2169.295025881991</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.267700153032</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q45" t="n">
-        <v>2859.698745686523</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R45" t="n">
-        <v>2884.554422930747</v>
+        <v>1839.929095123789</v>
       </c>
       <c r="S45" t="n">
-        <v>2817.970819955938</v>
+        <v>1773.345492148979</v>
       </c>
       <c r="T45" t="n">
-        <v>2679.289621505648</v>
+        <v>1634.66429369869</v>
       </c>
       <c r="U45" t="n">
-        <v>2494.573635500128</v>
+        <v>1449.948307693169</v>
       </c>
       <c r="V45" t="n">
-        <v>2289.600496639394</v>
+        <v>1244.975168832435</v>
       </c>
       <c r="W45" t="n">
-        <v>2093.079119472611</v>
+        <v>1048.453791665652</v>
       </c>
       <c r="X45" t="n">
-        <v>1929.601773239274</v>
+        <v>884.9764454323155</v>
       </c>
       <c r="Y45" t="n">
-        <v>1789.908884592566</v>
+        <v>745.2835567856079</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>972.6095237587783</v>
+        <v>1114.283531381842</v>
       </c>
       <c r="C46" t="n">
-        <v>800.6369606376943</v>
+        <v>942.3109682607579</v>
       </c>
       <c r="D46" t="n">
-        <v>637.320187764465</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E46" t="n">
         <v>612.7859895403822</v>
@@ -7830,28 +7830,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R46" t="n">
-        <v>2867.431098359184</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S46" t="n">
-        <v>2708.890795827167</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T46" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U46" t="n">
-        <v>2188.246028554755</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V46" t="n">
-        <v>1906.534561162784</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W46" t="n">
-        <v>1631.682157335297</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X46" t="n">
-        <v>1389.118260781102</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.775492470844</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>66.42835256544261</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>65.39593296726571</v>
       </c>
       <c r="O2" t="n">
-        <v>64.37125695822481</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>64.55565941243201</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>47.59141193553404</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,7 +8066,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,10 +8075,10 @@
         <v>51.28819985504191</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>48.75113880702937</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
         <v>51.78922952696383</v>
@@ -8142,19 +8142,19 @@
         <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>47.7291985778011</v>
       </c>
       <c r="O4" t="n">
         <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
         <v>52.73587289760464</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L5" t="n">
         <v>66.42835256544261</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>64.25992043664672</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>64.55565941243201</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8300,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>49.45933834636135</v>
+        <v>40.80146423805364</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>51.28819985504191</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.72733589117921</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>51.78922952696383</v>
@@ -8379,19 +8379,19 @@
         <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M7" t="n">
         <v>50.69175002430551</v>
       </c>
       <c r="N7" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O7" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>49.36109826018719</v>
       </c>
       <c r="Q7" t="n">
         <v>24.61956276478495</v>
@@ -8458,22 +8458,22 @@
         <v>63.88091092762902</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>65.54757303225151</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
         <v>50.63139684704925</v>
       </c>
       <c r="M9" t="n">
-        <v>50.07707811452869</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
-        <v>51.78922952696383</v>
+        <v>50.65321699634485</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,25 +8613,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
-        <v>48.86521110842008</v>
+        <v>47.7291985778011</v>
       </c>
       <c r="O10" t="n">
-        <v>49.47948510062515</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>50.49711079080617</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>339.05627102615</v>
       </c>
       <c r="L11" t="n">
-        <v>527.7279018952188</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>496.4099658176565</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.1979834628831</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>184.4156082729275</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>545.1677686830905</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.708804695173</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039389</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>377.3961807775883</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>511.1225922539926</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>339.05627102615</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>573.0661486109622</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>304.3153985732812</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>156.5172283450557</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.915358154856</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039389</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>527.7279018952187</v>
+        <v>339.05627102615</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>496.4099658176564</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>361.1979834628827</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>573.0661486109622</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>156.5172283450558</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>340.9609328404806</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>326.6554187306642</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>511.1225922539926</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>547.5578401911007</v>
+        <v>547.5578401911008</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>30.17929040124523</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>689.1610490978329</v>
+        <v>51.61515110920118</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.914568608285</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>238.0025236541309</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>51.61515110920118</v>
       </c>
       <c r="M26" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>311.0663616682667</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="L27" t="n">
-        <v>110.7347223465833</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1034.914568608285</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>361.046412718625</v>
+        <v>464.8427841710476</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>729.5833769560173</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>304.3153985732811</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>51.61515110920118</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>608.6849286245072</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>623.0626695975266</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>304.3153985732811</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>500.7336652134084</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>387.7851078181723</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>131.4818162956399</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>304.3153985732812</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>570.1186602552716</v>
+        <v>288.3155089792258</v>
       </c>
       <c r="L38" t="n">
-        <v>527.7279018952188</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>547.5578401911008</v>
       </c>
       <c r="Q38" t="n">
-        <v>287.4892890252675</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>304.3153985732813</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>136.6999977597356</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>592.8833791962818</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>570.1186602552716</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>164.6236902735306</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>131.4818162956399</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>304.3153985732813</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>304.0945986664938</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>570.1186602552715</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>511.1225922539928</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>339.0562710261495</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>238.0025236541303</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>304.3153985732814</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281026</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.915358154856</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.68031224855679</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8515591943052</v>
+        <v>223.0971291723905</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T11" t="n">
         <v>212.2884438087945</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.75512447040839</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.3051762209847</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>318.9050079645468</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>27.38622436313449</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.34225510858482</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>279.8515591943054</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.86271419048811</v>
+        <v>69.86271419048828</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.2884438087947</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6538892153289</v>
       </c>
       <c r="V17" t="n">
-        <v>322.3148219227828</v>
+        <v>353.9145207250132</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>107.7667892135893</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>123.305176220988</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.755124470408475</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>16.9520913258477</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>272.7274318646876</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>88.17774656575432</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>279.8515591943054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.86271419048828</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087947</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6538892153289</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.305176220988</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.755124470408475</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.9520913258477</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>140.2572675468333</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.9520913258477</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>123.3051762209895</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.29434643443336</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>44.34225510859844</v>
       </c>
       <c r="I28" t="n">
-        <v>78.96292111239987</v>
+        <v>78.96292111240004</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.9520913258477</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.755124470408802</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.9520913258477</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.3051762209894</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.3051762209859</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>61.29434643443339</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T35" t="n">
         <v>212.2884438087945</v>
@@ -25213,16 +25213,16 @@
         <v>255.6538892153287</v>
       </c>
       <c r="V35" t="n">
-        <v>102.5124545362557</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>110.2234034495899</v>
       </c>
     </row>
     <row r="36">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.755124470407821</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29.44499064548899</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6538892153287</v>
@@ -25453,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>383.5181003068701</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44.34225510858573</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>92.59142657231507</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>159.6847176257604</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U41" t="n">
         <v>255.6538892153287</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>140.257267546833</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.755124470408418</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>136.5021430764245</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>84.37534717917902</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H44" t="n">
-        <v>215.1011760500904</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>123.3051762209855</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>140.257267546833</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442059.8343901566</v>
+        <v>442059.8343901567</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442059.8343901566</v>
+        <v>442059.8343901567</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>442059.8343901566</v>
+        <v>442059.8343901564</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649500.8982857924</v>
+        <v>649500.8982857922</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649500.8982857924</v>
+        <v>649500.8982857923</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>442059.8343901565</v>
+        <v>442059.8343901566</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="C2" t="n">
         <v>495076.2678094886</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094886</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="E2" t="n">
-        <v>351952.5073036488</v>
+        <v>351952.5073036491</v>
       </c>
       <c r="F2" t="n">
         <v>351952.507303649</v>
@@ -26334,22 +26334,22 @@
         <v>351952.5073036489</v>
       </c>
       <c r="I2" t="n">
-        <v>492215.019551533</v>
+        <v>492215.0195515335</v>
       </c>
       <c r="J2" t="n">
-        <v>492215.0195515335</v>
+        <v>492215.0195515333</v>
       </c>
       <c r="K2" t="n">
-        <v>492215.0195515333</v>
+        <v>492215.0195515336</v>
       </c>
       <c r="L2" t="n">
         <v>492215.0195515334</v>
       </c>
       <c r="M2" t="n">
-        <v>351952.5073036489</v>
+        <v>351952.507303649</v>
       </c>
       <c r="N2" t="n">
-        <v>351952.507303649</v>
+        <v>351952.5073036491</v>
       </c>
       <c r="O2" t="n">
         <v>351952.507303649</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500373.5433647966</v>
+        <v>500373.5433647968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>142049.9200116689</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391375</v>
+        <v>7356.463848391494</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39583.91030305263</v>
+        <v>39583.91030305262</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320389.9842159035</v>
+        <v>320389.9842159034</v>
       </c>
       <c r="C4" t="n">
         <v>320389.9842159034</v>
@@ -26429,22 +26429,22 @@
         <v>69962.46559269914</v>
       </c>
       <c r="F4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269913</v>
       </c>
       <c r="G4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269898</v>
       </c>
       <c r="H4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269898</v>
       </c>
       <c r="I4" t="n">
-        <v>129142.8290071543</v>
+        <v>129142.8290071542</v>
       </c>
       <c r="J4" t="n">
-        <v>129142.8290071542</v>
+        <v>129142.829007154</v>
       </c>
       <c r="K4" t="n">
-        <v>129142.8290071543</v>
+        <v>129142.8290071541</v>
       </c>
       <c r="L4" t="n">
         <v>129142.8290071543</v>
@@ -26453,13 +26453,13 @@
         <v>69962.46559269911</v>
       </c>
       <c r="N4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269913</v>
       </c>
       <c r="O4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269913</v>
       </c>
       <c r="P4" t="n">
-        <v>69962.46559269911</v>
+        <v>69962.46559269913</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>51807.93193102434</v>
       </c>
       <c r="F5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="G5" t="n">
         <v>51807.93193102433</v>
@@ -26493,10 +26493,10 @@
         <v>84286.13085743281</v>
       </c>
       <c r="J5" t="n">
-        <v>84286.13085743278</v>
+        <v>84286.13085743281</v>
       </c>
       <c r="K5" t="n">
-        <v>84286.13085743281</v>
+        <v>84286.1308574328</v>
       </c>
       <c r="L5" t="n">
         <v>84286.13085743281</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129926.7897368688</v>
+        <v>129926.789736869</v>
       </c>
       <c r="C6" t="n">
-        <v>139349.2119375097</v>
+        <v>139349.2119375098</v>
       </c>
       <c r="D6" t="n">
-        <v>139349.2119375097</v>
+        <v>139349.2119375098</v>
       </c>
       <c r="E6" t="n">
-        <v>-270191.4335848713</v>
+        <v>-270612.3858216531</v>
       </c>
       <c r="F6" t="n">
-        <v>230182.1097799256</v>
+        <v>229761.1575431436</v>
       </c>
       <c r="G6" t="n">
-        <v>230182.1097799256</v>
+        <v>229761.157543144</v>
       </c>
       <c r="H6" t="n">
-        <v>230182.1097799254</v>
+        <v>229761.1575431438</v>
       </c>
       <c r="I6" t="n">
-        <v>136736.139675277</v>
+        <v>136727.7242392249</v>
       </c>
       <c r="J6" t="n">
-        <v>271429.5958385551</v>
+        <v>271421.1804025022</v>
       </c>
       <c r="K6" t="n">
-        <v>278786.0596869461</v>
+        <v>278777.6442508938</v>
       </c>
       <c r="L6" t="n">
-        <v>278786.0596869463</v>
+        <v>278777.6442508934</v>
       </c>
       <c r="M6" t="n">
-        <v>190598.1994768728</v>
+        <v>190177.247240091</v>
       </c>
       <c r="N6" t="n">
-        <v>230182.1097799256</v>
+        <v>229761.1575431438</v>
       </c>
       <c r="O6" t="n">
-        <v>230182.1097799255</v>
+        <v>229761.1575431436</v>
       </c>
       <c r="P6" t="n">
-        <v>230182.1097799256</v>
+        <v>229761.1575431436</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="F3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="G3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="H3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="I3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="J3" t="n">
         <v>365.2616835998615</v>
@@ -26798,22 +26798,22 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>721.1386057326869</v>
+        <v>721.138605732687</v>
       </c>
       <c r="F4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.138605732687</v>
       </c>
       <c r="G4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.138605732687</v>
       </c>
       <c r="H4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.138605732687</v>
       </c>
       <c r="I4" t="n">
         <v>1255.319509127563</v>
       </c>
       <c r="J4" t="n">
-        <v>1255.319509127562</v>
+        <v>1255.319509127563</v>
       </c>
       <c r="K4" t="n">
         <v>1255.319509127563</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>365.2616835998614</v>
+        <v>365.2616835998615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998673</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>534.1809033948762</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281931</v>
+        <v>28.11631013281976</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>693.0222955998672</v>
+        <v>693.0222955998673</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,13 +27460,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>91.56599848268269</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>78.89006842480458</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -27545,13 +27545,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>139.7812778236874</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8295540437226</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>114.2419956741075</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>140.3173868732368</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>102.8728933608745</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W6" t="n">
         <v>166.4398532622953</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>216.1411083313714</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27836,13 +27836,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>215.3734116236654</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>195.9630304943357</v>
       </c>
     </row>
     <row r="8">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>102.8728933608745</v>
       </c>
       <c r="C9" t="n">
         <v>88.21453431485057</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F9" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
         <v>93.11323406457203</v>
@@ -27997,10 +27997,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>137.0777268060161</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.803381214711</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>143.6688510410689</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>212.7896441635393</v>
       </c>
       <c r="U10" t="n">
         <v>249.2662938818791</v>
@@ -28073,7 +28073,7 @@
         <v>250.7780425852317</v>
       </c>
       <c r="W10" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-7.049305912312888e-14</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-3.116071046372064e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29477,31 +29477,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-3.762428332027429e-12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.76113092363396e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.761130923633963e-13</v>
       </c>
     </row>
     <row r="29">
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H11" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I11" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043684</v>
       </c>
       <c r="J11" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K11" t="n">
-        <v>186.7845462722246</v>
+        <v>186.7845462722247</v>
       </c>
       <c r="L11" t="n">
-        <v>231.722746270091</v>
+        <v>231.7227462700911</v>
       </c>
       <c r="M11" t="n">
-        <v>257.8362034187102</v>
+        <v>257.8362034187103</v>
       </c>
       <c r="N11" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494766</v>
       </c>
       <c r="O11" t="n">
-        <v>247.4069728347182</v>
+        <v>247.4069728347183</v>
       </c>
       <c r="P11" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.5694578285207</v>
+        <v>158.5694578285208</v>
       </c>
       <c r="R11" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112484</v>
       </c>
       <c r="S11" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T11" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018666</v>
       </c>
       <c r="U11" t="n">
         <v>0.1174710942230709</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336644</v>
       </c>
       <c r="H12" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046181</v>
       </c>
       <c r="I12" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J12" t="n">
-        <v>74.22737666438317</v>
+        <v>74.22737666438319</v>
       </c>
       <c r="K12" t="n">
         <v>126.8664094820387</v>
@@ -31849,31 +31849,31 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M12" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N12" t="n">
         <v>204.3363450546055</v>
       </c>
       <c r="O12" t="n">
-        <v>186.9278353796385</v>
+        <v>186.9278353796386</v>
       </c>
       <c r="P12" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q12" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R12" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S12" t="n">
         <v>14.59323801929634</v>
       </c>
       <c r="T12" t="n">
-        <v>3.166749879512005</v>
+        <v>3.166749879512006</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.658668609770242</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8561627305027</v>
+        <v>5.856162730502701</v>
       </c>
       <c r="I13" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J13" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K13" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239719</v>
       </c>
       <c r="L13" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347763</v>
       </c>
       <c r="M13" t="n">
-        <v>103.2492985297116</v>
+        <v>103.2492985297117</v>
       </c>
       <c r="N13" t="n">
-        <v>100.7942609842044</v>
+        <v>100.7942609842045</v>
       </c>
       <c r="O13" t="n">
-        <v>93.09981404279748</v>
+        <v>93.0998140427975</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66297440348448</v>
+        <v>79.66297440348451</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R13" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385106</v>
       </c>
       <c r="S13" t="n">
-        <v>11.47879749935957</v>
+        <v>11.47879749935958</v>
       </c>
       <c r="T13" t="n">
-        <v>2.814311332654669</v>
+        <v>2.81431133265467</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H14" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I14" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043684</v>
       </c>
       <c r="J14" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K14" t="n">
-        <v>186.7845462722246</v>
+        <v>186.7845462722247</v>
       </c>
       <c r="L14" t="n">
-        <v>231.722746270091</v>
+        <v>231.7227462700911</v>
       </c>
       <c r="M14" t="n">
-        <v>257.8362034187102</v>
+        <v>257.8362034187103</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494766</v>
       </c>
       <c r="O14" t="n">
-        <v>247.4069728347182</v>
+        <v>247.4069728347183</v>
       </c>
       <c r="P14" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.5694578285207</v>
+        <v>158.5694578285208</v>
       </c>
       <c r="R14" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112484</v>
       </c>
       <c r="S14" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T14" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018666</v>
       </c>
       <c r="U14" t="n">
         <v>0.1174710942230709</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336644</v>
       </c>
       <c r="H15" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046181</v>
       </c>
       <c r="I15" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J15" t="n">
-        <v>74.22737666438317</v>
+        <v>74.22737666438319</v>
       </c>
       <c r="K15" t="n">
         <v>126.8664094820387</v>
@@ -32086,31 +32086,31 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M15" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N15" t="n">
         <v>204.3363450546055</v>
       </c>
       <c r="O15" t="n">
-        <v>186.9278353796385</v>
+        <v>186.9278353796386</v>
       </c>
       <c r="P15" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q15" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R15" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S15" t="n">
         <v>14.59323801929634</v>
       </c>
       <c r="T15" t="n">
-        <v>3.166749879512005</v>
+        <v>3.166749879512006</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.658668609770242</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8561627305027</v>
+        <v>5.856162730502701</v>
       </c>
       <c r="I16" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J16" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K16" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239719</v>
       </c>
       <c r="L16" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347763</v>
       </c>
       <c r="M16" t="n">
-        <v>103.2492985297116</v>
+        <v>103.2492985297117</v>
       </c>
       <c r="N16" t="n">
-        <v>100.7942609842044</v>
+        <v>100.7942609842045</v>
       </c>
       <c r="O16" t="n">
-        <v>93.09981404279748</v>
+        <v>93.0998140427975</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66297440348448</v>
+        <v>79.66297440348451</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R16" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385106</v>
       </c>
       <c r="S16" t="n">
-        <v>11.47879749935957</v>
+        <v>11.47879749935958</v>
       </c>
       <c r="T16" t="n">
-        <v>2.814311332654669</v>
+        <v>2.81431133265467</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H17" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I17" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043684</v>
       </c>
       <c r="J17" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K17" t="n">
-        <v>186.7845462722246</v>
+        <v>186.7845462722247</v>
       </c>
       <c r="L17" t="n">
-        <v>231.722746270091</v>
+        <v>231.7227462700911</v>
       </c>
       <c r="M17" t="n">
-        <v>257.8362034187102</v>
+        <v>257.8362034187103</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494766</v>
       </c>
       <c r="O17" t="n">
-        <v>247.4069728347182</v>
+        <v>247.4069728347183</v>
       </c>
       <c r="P17" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.5694578285207</v>
+        <v>158.5694578285208</v>
       </c>
       <c r="R17" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112484</v>
       </c>
       <c r="S17" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T17" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018666</v>
       </c>
       <c r="U17" t="n">
         <v>0.1174710942230709</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336644</v>
       </c>
       <c r="H18" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046181</v>
       </c>
       <c r="I18" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J18" t="n">
-        <v>74.22737666438317</v>
+        <v>74.22737666438319</v>
       </c>
       <c r="K18" t="n">
         <v>126.8664094820387</v>
@@ -32323,31 +32323,31 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M18" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N18" t="n">
         <v>204.3363450546055</v>
       </c>
       <c r="O18" t="n">
-        <v>186.9278353796385</v>
+        <v>186.9278353796386</v>
       </c>
       <c r="P18" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q18" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R18" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S18" t="n">
         <v>14.59323801929634</v>
       </c>
       <c r="T18" t="n">
-        <v>3.166749879512005</v>
+        <v>3.166749879512006</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.658668609770242</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8561627305027</v>
+        <v>5.856162730502701</v>
       </c>
       <c r="I19" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J19" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K19" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239719</v>
       </c>
       <c r="L19" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347763</v>
       </c>
       <c r="M19" t="n">
-        <v>103.2492985297116</v>
+        <v>103.2492985297117</v>
       </c>
       <c r="N19" t="n">
-        <v>100.7942609842044</v>
+        <v>100.7942609842045</v>
       </c>
       <c r="O19" t="n">
-        <v>93.09981404279748</v>
+        <v>93.0998140427975</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66297440348448</v>
+        <v>79.66297440348451</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R19" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385106</v>
       </c>
       <c r="S19" t="n">
-        <v>11.47879749935957</v>
+        <v>11.47879749935958</v>
       </c>
       <c r="T19" t="n">
-        <v>2.814311332654669</v>
+        <v>2.81431133265467</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H20" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I20" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043684</v>
       </c>
       <c r="J20" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K20" t="n">
-        <v>186.7845462722246</v>
+        <v>186.7845462722247</v>
       </c>
       <c r="L20" t="n">
-        <v>231.722746270091</v>
+        <v>231.7227462700911</v>
       </c>
       <c r="M20" t="n">
-        <v>257.8362034187102</v>
+        <v>257.8362034187103</v>
       </c>
       <c r="N20" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494766</v>
       </c>
       <c r="O20" t="n">
-        <v>247.4069728347182</v>
+        <v>247.4069728347183</v>
       </c>
       <c r="P20" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.5694578285207</v>
+        <v>158.5694578285208</v>
       </c>
       <c r="R20" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112484</v>
       </c>
       <c r="S20" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T20" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018666</v>
       </c>
       <c r="U20" t="n">
         <v>0.1174710942230709</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336644</v>
       </c>
       <c r="H21" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046181</v>
       </c>
       <c r="I21" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J21" t="n">
-        <v>74.22737666438317</v>
+        <v>74.22737666438319</v>
       </c>
       <c r="K21" t="n">
         <v>126.8664094820387</v>
@@ -32560,31 +32560,31 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M21" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N21" t="n">
         <v>204.3363450546055</v>
       </c>
       <c r="O21" t="n">
-        <v>186.9278353796385</v>
+        <v>186.9278353796386</v>
       </c>
       <c r="P21" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q21" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R21" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S21" t="n">
         <v>14.59323801929634</v>
       </c>
       <c r="T21" t="n">
-        <v>3.166749879512005</v>
+        <v>3.166749879512006</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.658668609770242</v>
       </c>
       <c r="H22" t="n">
-        <v>5.8561627305027</v>
+        <v>5.856162730502701</v>
       </c>
       <c r="I22" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J22" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K22" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239719</v>
       </c>
       <c r="L22" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347763</v>
       </c>
       <c r="M22" t="n">
-        <v>103.2492985297116</v>
+        <v>103.2492985297117</v>
       </c>
       <c r="N22" t="n">
-        <v>100.7942609842044</v>
+        <v>100.7942609842045</v>
       </c>
       <c r="O22" t="n">
-        <v>93.09981404279748</v>
+        <v>93.0998140427975</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66297440348448</v>
+        <v>79.66297440348451</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R22" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385106</v>
       </c>
       <c r="S22" t="n">
-        <v>11.47879749935957</v>
+        <v>11.47879749935958</v>
       </c>
       <c r="T22" t="n">
-        <v>2.814311332654669</v>
+        <v>2.81431133265467</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H23" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I23" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043684</v>
       </c>
       <c r="J23" t="n">
         <v>124.6276535414422</v>
       </c>
       <c r="K23" t="n">
-        <v>186.7845462722246</v>
+        <v>186.7845462722247</v>
       </c>
       <c r="L23" t="n">
-        <v>231.722746270091</v>
+        <v>231.7227462700911</v>
       </c>
       <c r="M23" t="n">
-        <v>257.8362034187102</v>
+        <v>257.8362034187103</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494766</v>
       </c>
       <c r="O23" t="n">
-        <v>247.4069728347182</v>
+        <v>247.4069728347183</v>
       </c>
       <c r="P23" t="n">
         <v>211.1561273518174</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.5694578285207</v>
+        <v>158.5694578285208</v>
       </c>
       <c r="R23" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112484</v>
       </c>
       <c r="S23" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T23" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018666</v>
       </c>
       <c r="U23" t="n">
         <v>0.1174710942230709</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336644</v>
       </c>
       <c r="H24" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046181</v>
       </c>
       <c r="I24" t="n">
         <v>27.05003977602748</v>
       </c>
       <c r="J24" t="n">
-        <v>74.22737666438317</v>
+        <v>74.22737666438319</v>
       </c>
       <c r="K24" t="n">
         <v>126.8664094820387</v>
@@ -32797,31 +32797,31 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M24" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N24" t="n">
         <v>204.3363450546055</v>
       </c>
       <c r="O24" t="n">
-        <v>186.9278353796385</v>
+        <v>186.9278353796386</v>
       </c>
       <c r="P24" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q24" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R24" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S24" t="n">
         <v>14.59323801929634</v>
       </c>
       <c r="T24" t="n">
-        <v>3.166749879512005</v>
+        <v>3.166749879512006</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.658668609770242</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8561627305027</v>
+        <v>5.856162730502701</v>
       </c>
       <c r="I25" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J25" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K25" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239719</v>
       </c>
       <c r="L25" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347763</v>
       </c>
       <c r="M25" t="n">
-        <v>103.2492985297116</v>
+        <v>103.2492985297117</v>
       </c>
       <c r="N25" t="n">
-        <v>100.7942609842044</v>
+        <v>100.7942609842045</v>
       </c>
       <c r="O25" t="n">
-        <v>93.09981404279748</v>
+        <v>93.0998140427975</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66297440348448</v>
+        <v>79.66297440348451</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R25" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385106</v>
       </c>
       <c r="S25" t="n">
-        <v>11.47879749935957</v>
+        <v>11.47879749935958</v>
       </c>
       <c r="T25" t="n">
-        <v>2.814311332654669</v>
+        <v>2.81431133265467</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="P2" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>28.11631013281968</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
         <v>28.11631013281968</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q4" t="n">
         <v>28.11631013281968</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="O6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>28.11631013281968</v>
@@ -35099,19 +35099,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="L7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>28.11631013281968</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="R9" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="N9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>28.11631013281968</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="O10" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647334</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K11" t="n">
-        <v>151.0199454774153</v>
+        <v>490.0762165035653</v>
       </c>
       <c r="L11" t="n">
-        <v>721.1386057326869</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M11" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N11" t="n">
-        <v>721.1386057326869</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O11" t="n">
-        <v>210.0160134786941</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P11" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q11" t="n">
-        <v>483.6427666868058</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R11" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J12" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K12" t="n">
-        <v>288.8827839216328</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L12" t="n">
         <v>148.0724571217246</v>
       </c>
       <c r="M12" t="n">
-        <v>721.1386057326869</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N12" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O12" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P12" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R12" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>104.6399194220272</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K13" t="n">
         <v>305.3410754561721</v>
       </c>
       <c r="L13" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M13" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N13" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O13" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P13" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.4374740627325</v>
+        <v>183.437474062733</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647334</v>
       </c>
       <c r="J14" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K14" t="n">
         <v>151.0199454774153</v>
@@ -35655,22 +35655,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M14" t="n">
-        <v>597.8011212968667</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N14" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O14" t="n">
-        <v>721.1386057326868</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P14" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677361</v>
       </c>
       <c r="Q14" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R14" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J15" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K15" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L15" t="n">
-        <v>721.1386057326868</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M15" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N15" t="n">
-        <v>182.9933168410638</v>
+        <v>487.308715414345</v>
       </c>
       <c r="O15" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P15" t="n">
-        <v>284.7724548814606</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.5414149137608</v>
+        <v>77.54141491376085</v>
       </c>
       <c r="R15" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L16" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M16" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N16" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O16" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P16" t="n">
-        <v>373.197531900354</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q16" t="n">
-        <v>183.4374740627325</v>
+        <v>183.437474062733</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647334</v>
       </c>
       <c r="J17" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K17" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1386057326868</v>
+        <v>532.4669748636181</v>
       </c>
       <c r="M17" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N17" t="n">
-        <v>721.1386057326868</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O17" t="n">
-        <v>571.2139969415767</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P17" t="n">
         <v>173.5807655415861</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R17" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J18" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K18" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L18" t="n">
-        <v>721.1386057326868</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M18" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N18" t="n">
-        <v>339.5105451861196</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O18" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P18" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R18" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L19" t="n">
-        <v>456.1981002950137</v>
+        <v>456.198100295014</v>
       </c>
       <c r="M19" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N19" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O19" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P19" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q19" t="n">
-        <v>183.4374740627325</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647334</v>
       </c>
       <c r="J20" t="n">
-        <v>95.20769405585565</v>
+        <v>436.1686268963363</v>
       </c>
       <c r="K20" t="n">
         <v>151.0199454774153</v>
@@ -36129,22 +36129,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M20" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N20" t="n">
-        <v>551.3840586456946</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O20" t="n">
-        <v>721.1386057326868</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P20" t="n">
-        <v>721.1386057326868</v>
+        <v>721.138605732687</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R20" t="n">
-        <v>57.20602038632834</v>
+        <v>57.20602038632837</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J21" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K21" t="n">
         <v>104.4671756487053</v>
@@ -36208,19 +36208,19 @@
         <v>148.0724571217246</v>
       </c>
       <c r="M21" t="n">
-        <v>206.1501274508417</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N21" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O21" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P21" t="n">
-        <v>721.1386057326868</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R21" t="n">
         <v>131.6274520496262</v>
@@ -36284,22 +36284,22 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L22" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M22" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663287</v>
       </c>
       <c r="N22" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246447</v>
       </c>
       <c r="O22" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P22" t="n">
         <v>373.1975319003542</v>
       </c>
       <c r="Q22" t="n">
-        <v>183.4374740627325</v>
+        <v>183.4374740627326</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647334</v>
       </c>
       <c r="J23" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K23" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L23" t="n">
-        <v>882.571752935301</v>
+        <v>245.0258549466693</v>
       </c>
       <c r="M23" t="n">
-        <v>1255.319509127563</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N23" t="n">
-        <v>1248.120443039073</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O23" t="n">
-        <v>210.0160134786941</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P23" t="n">
-        <v>926.5897426628553</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R23" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J24" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K24" t="n">
         <v>104.4671756487053</v>
@@ -36448,19 +36448,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N24" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O24" t="n">
-        <v>401.7584693115471</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P24" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q24" t="n">
-        <v>569.1222682156478</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R24" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>104.6399194220268</v>
+        <v>104.6399194220267</v>
       </c>
       <c r="K25" t="n">
-        <v>305.3410754561721</v>
+        <v>305.341075456172</v>
       </c>
       <c r="L25" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950136</v>
       </c>
       <c r="M25" t="n">
-        <v>498.3864651663286</v>
+        <v>498.3864651663285</v>
       </c>
       <c r="N25" t="n">
-        <v>482.0988174246446</v>
+        <v>482.0988174246445</v>
       </c>
       <c r="O25" t="n">
-        <v>452.1181258405379</v>
+        <v>452.1181258405378</v>
       </c>
       <c r="P25" t="n">
-        <v>373.1975319003542</v>
+        <v>373.197531900354</v>
       </c>
       <c r="Q25" t="n">
-        <v>183.4374740627325</v>
+        <v>183.4374740627324</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J26" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K26" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.737945885522</v>
+        <v>245.0258549466693</v>
       </c>
       <c r="M26" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N26" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O26" t="n">
-        <v>521.0823751469609</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P26" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R26" t="n">
         <v>210.9824428891073</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J27" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K27" t="n">
-        <v>723.3158302581393</v>
+        <v>408.7825742219867</v>
       </c>
       <c r="L27" t="n">
-        <v>258.8071794683079</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M27" t="n">
         <v>175.9708370495965</v>
@@ -36697,7 +36697,7 @@
         <v>77.54141491376085</v>
       </c>
       <c r="R27" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>373.1975319003542</v>
       </c>
       <c r="Q28" t="n">
-        <v>183.4374740627326</v>
+        <v>183.437474062723</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>95.20769405585568</v>
       </c>
       <c r="K29" t="n">
-        <v>909.5202108939409</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L29" t="n">
         <v>1170.737945885522</v>
       </c>
       <c r="M29" t="n">
-        <v>220.4049405192785</v>
+        <v>1255.319509127563</v>
       </c>
       <c r="N29" t="n">
-        <v>224.7286399150305</v>
+        <v>1248.120443039074</v>
       </c>
       <c r="O29" t="n">
-        <v>571.0624261973192</v>
+        <v>674.8587976497417</v>
       </c>
       <c r="P29" t="n">
-        <v>926.5897426628554</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q29" t="n">
-        <v>619.2618613680996</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R29" t="n">
-        <v>210.9824428891073</v>
+        <v>57.20602038632837</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J30" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K30" t="n">
         <v>104.4671756487053</v>
@@ -36928,13 +36928,13 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P30" t="n">
-        <v>857.8386034924224</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.54141491376085</v>
+        <v>381.856813487042</v>
       </c>
       <c r="R30" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.6399194220268</v>
+        <v>104.6399194220267</v>
       </c>
       <c r="K31" t="n">
-        <v>305.3410754561721</v>
+        <v>305.341075456172</v>
       </c>
       <c r="L31" t="n">
-        <v>456.1981002950138</v>
+        <v>456.1981002950136</v>
       </c>
       <c r="M31" t="n">
-        <v>498.3864651663287</v>
+        <v>498.3864651663285</v>
       </c>
       <c r="N31" t="n">
-        <v>482.0988174246447</v>
+        <v>482.0988174246445</v>
       </c>
       <c r="O31" t="n">
-        <v>452.118125840538</v>
+        <v>452.1181258405378</v>
       </c>
       <c r="P31" t="n">
-        <v>373.1975319003542</v>
+        <v>373.197531900354</v>
       </c>
       <c r="Q31" t="n">
-        <v>183.4374740627326</v>
+        <v>183.4374740627324</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J32" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K32" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939409</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.737945885522</v>
+        <v>245.0258549466693</v>
       </c>
       <c r="M32" t="n">
         <v>220.4049405192785</v>
       </c>
       <c r="N32" t="n">
-        <v>1248.120443039074</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O32" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P32" t="n">
-        <v>782.2656941660933</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R32" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J33" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K33" t="n">
         <v>104.4671756487053</v>
@@ -37165,10 +37165,10 @@
         <v>163.7559456574163</v>
       </c>
       <c r="P33" t="n">
-        <v>751.3178961339316</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.54141491376085</v>
+        <v>381.856813487042</v>
       </c>
       <c r="R33" t="n">
         <v>131.6274520496262</v>
@@ -37305,7 +37305,7 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J35" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K35" t="n">
         <v>151.0199454774153</v>
@@ -37314,22 +37314,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M35" t="n">
-        <v>721.1386057326869</v>
+        <v>220.4049405192785</v>
       </c>
       <c r="N35" t="n">
         <v>224.7286399150305</v>
       </c>
       <c r="O35" t="n">
-        <v>597.8011212968664</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P35" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677357</v>
       </c>
       <c r="Q35" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R35" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J36" t="n">
-        <v>185.0980786266897</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K36" t="n">
         <v>104.4671756487053</v>
@@ -37399,13 +37399,13 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O36" t="n">
-        <v>163.7559456574163</v>
+        <v>468.0713442306975</v>
       </c>
       <c r="P36" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q36" t="n">
-        <v>569.1222682156478</v>
+        <v>77.54141491376085</v>
       </c>
       <c r="R36" t="n">
         <v>131.6274520496262</v>
@@ -37542,13 +37542,13 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J38" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K38" t="n">
-        <v>721.1386057326869</v>
+        <v>439.3354544566411</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1386057326869</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M38" t="n">
         <v>220.4049405192785</v>
@@ -37560,13 +37560,13 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P38" t="n">
-        <v>173.5807655415861</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="Q38" t="n">
-        <v>409.9340722491902</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R38" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J39" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K39" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219866</v>
       </c>
       <c r="L39" t="n">
         <v>148.0724571217246</v>
@@ -37636,16 +37636,16 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O39" t="n">
-        <v>300.4559434171519</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P39" t="n">
-        <v>721.1386057326869</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q39" t="n">
         <v>77.54141491376085</v>
       </c>
       <c r="R39" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J41" t="n">
-        <v>95.20769405585568</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K41" t="n">
-        <v>721.1386057326869</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L41" t="n">
         <v>193.4107038374681</v>
@@ -37797,7 +37797,7 @@
         <v>210.0160134786942</v>
       </c>
       <c r="P41" t="n">
-        <v>338.2044558151167</v>
+        <v>512.6370365677357</v>
       </c>
       <c r="Q41" t="n">
         <v>619.2618613680996</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J42" t="n">
-        <v>185.0980786266897</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K42" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219866</v>
       </c>
       <c r="L42" t="n">
         <v>148.0724571217246</v>
@@ -37879,7 +37879,7 @@
         <v>128.255226536405</v>
       </c>
       <c r="Q42" t="n">
-        <v>569.1222682156478</v>
+        <v>77.54141491376085</v>
       </c>
       <c r="R42" t="n">
         <v>131.6274520496262</v>
@@ -38016,10 +38016,10 @@
         <v>22.06215195647334</v>
       </c>
       <c r="J44" t="n">
-        <v>399.3022927223494</v>
+        <v>490.8937735585084</v>
       </c>
       <c r="K44" t="n">
-        <v>721.1386057326869</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L44" t="n">
         <v>193.4107038374681</v>
@@ -38031,16 +38031,16 @@
         <v>224.7286399150305</v>
       </c>
       <c r="O44" t="n">
-        <v>721.1386057326869</v>
+        <v>210.0160134786942</v>
       </c>
       <c r="P44" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677357</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R44" t="n">
-        <v>57.20602038632837</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.87765302602748</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J45" t="n">
-        <v>53.61626233104985</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K45" t="n">
         <v>104.4671756487053</v>
@@ -38110,16 +38110,16 @@
         <v>182.9933168410639</v>
       </c>
       <c r="O45" t="n">
-        <v>401.7584693115467</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P45" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q45" t="n">
-        <v>569.1222682156478</v>
+        <v>381.8568134870422</v>
       </c>
       <c r="R45" t="n">
-        <v>25.10674469113549</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>456.1981002950138</v>
       </c>
       <c r="M46" t="n">
-        <v>498.3864651663287</v>
+        <v>498.3864651663285</v>
       </c>
       <c r="N46" t="n">
         <v>482.0988174246447</v>
@@ -38192,7 +38192,7 @@
         <v>452.118125840538</v>
       </c>
       <c r="P46" t="n">
-        <v>373.197531900354</v>
+        <v>373.1975319003542</v>
       </c>
       <c r="Q46" t="n">
         <v>183.4374740627326</v>
